--- a/Design/Excel/Dungeon.xlsx
+++ b/Design/Excel/Dungeon.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID</t>
   </si>
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>Difficulty</t>
-  </si>
-  <si>
-    <t>LimitLv</t>
   </si>
 </sst>
 </file>
@@ -56,14 +53,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,7 +70,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -84,15 +81,21 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -321,55 +324,49 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>1.0</v>
       </c>
-      <c r="D2" s="4">
-        <v>10.0</v>
-      </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>2.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>1.0</v>
       </c>
-      <c r="D3" s="4">
-        <v>5.0</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
